--- a/biology/Botanique/Square_Louise-de-Marillac/Square_Louise-de-Marillac.xlsx
+++ b/biology/Botanique/Square_Louise-de-Marillac/Square_Louise-de-Marillac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Louise-de-Marillac est un square du 18e arrondissement de Paris, qui fait partie des grandes réalisations urbaines du Second Empire.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est entouré de la rue Marx-Dormoy, de la place de la Chapelle et du boulevard de la Chapelle.
 Il est desservi à proximité par la ligne 2 à la station La Chapelle.
@@ -544,9 +558,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il porte le nom Louise de Marillac (1591-1660), fille d'un conseiller au Parlement et fondatrice, avec saint Vincent de Paul, des Filles de la Charité, qui habita au coin des actuelles rue Marx-Dormoy (no 2) et place de la Chapelle, de 1636 à 1641[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il porte le nom Louise de Marillac (1591-1660), fille d'un conseiller au Parlement et fondatrice, avec saint Vincent de Paul, des Filles de la Charité, qui habita au coin des actuelles rue Marx-Dormoy (no 2) et place de la Chapelle, de 1636 à 1641.
 </t>
         </is>
       </c>
@@ -575,13 +591,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme le square de Jessaint, sa configuration résulte de la démolition de la barrière de la Chapelle (« barrière Saint-Denis », « barrière de la Franciade » pendant la Révolution) et de la construction de la ligne 2 du métro, aérienne à cet endroit[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme le square de Jessaint, sa configuration résulte de la démolition de la barrière de la Chapelle (« barrière Saint-Denis », « barrière de la Franciade » pendant la Révolution) et de la construction de la ligne 2 du métro, aérienne à cet endroit.
 Aménagé en 1862 sous le nom de « square de la Chapelle », c'est le premier square en date du 18e arrondissement.
 L’angle sud-ouest est bâti sur l'emplacement de l'édifice principal de la barrière Saint-Denis.
-Le square abritait une statue, La Glaneuse (1889) du sculpteur Édouard Houssin, qui a été détruite sous l'Occupation en 1942[3].
-Il a été rénové en 1986. C'est à cette occasion qu'il a pris le nom de « Louise-de-Marillac[4] ».
+Le square abritait une statue, La Glaneuse (1889) du sculpteur Édouard Houssin, qui a été détruite sous l'Occupation en 1942.
+Il a été rénové en 1986. C'est à cette occasion qu'il a pris le nom de « Louise-de-Marillac ».
 </t>
         </is>
       </c>
@@ -610,10 +628,12 @@
           <t>Aménagements</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est planté de cerisiers et de platanes et de haies de cornouillers, de chèvrefeuille et de spirées.
-Les enfants peuvent jouer sur une aire de jeux de ballons et disposent de plusieurs tables de ping-pong[5].
+Les enfants peuvent jouer sur une aire de jeux de ballons et disposent de plusieurs tables de ping-pong.
 En 2013, la rue de la Chapelle à l'est a été piétonnisée, augmentant la surface disponible de trottoirs.
 </t>
         </is>
